--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_16.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86090E8D-27A6-4E7B-9632-59611F8F23AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273F564F-A50B-4528-9583-2EC5F91FF184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="110">
   <si>
     <t>UC_N</t>
   </si>
@@ -81,9 +81,6 @@
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
-    <t>~UC_T: LO</t>
-  </si>
-  <si>
     <t>ELC</t>
   </si>
   <si>
@@ -348,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaP,SaP,FaD,WaP,WaD,RaP,SaD,RaD</t>
-  </si>
-  <si>
-    <t>SaN,WaN,RaP,RaN,FaN,FaP,SaP,WaP</t>
+    <t>FaD,RaD,FaP,SaP,WaP,SaD,WaD,RaP</t>
+  </si>
+  <si>
+    <t>RaP,RaN,FaP,SaP,SaN,WaN,FaN,WaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -850,7 +847,7 @@
   <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -870,8 +867,9 @@
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="3" t="s">
-        <v>13</v>
+      <c r="G5" s="3" t="str">
+        <f>IF(C13=C14,"Not Required!","~UC_T: LO")</f>
+        <v>~UC_T: LO</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -885,7 +883,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -900,7 +898,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -908,21 +906,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>SaN,WaN,RaP,RaN,FaN,FaP,SaP,WaP</v>
+        <v>RaP,RaN,FaP,SaP,SaN,WaN,FaN,WaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -940,21 +938,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaP,SaP,FaD,WaP,WaD,RaP,SaD,RaD</v>
+        <v>FaD,RaD,FaP,SaP,WaP,SaD,WaD,RaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -966,26 +964,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1013,551 +1011,551 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="C46" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -1567,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B552CC-943F-4C03-8F49-4083A7BC476B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D80CF6-3CF3-411E-B5D4-424E67724DF2}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1576,68 +1574,68 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>73</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>74</v>
-      </c>
-      <c r="F3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1646,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F81B17-9BAB-43EC-B27A-B90CE1C5E4E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C55E210-79DC-4E5E-A7A8-9C524D892F25}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1655,396 +1653,396 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>81</v>
       </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
         <v>80</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>81</v>
       </c>
-      <c r="K3" t="s">
-        <v>82</v>
-      </c>
       <c r="M3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O3" t="s">
         <v>107</v>
-      </c>
-      <c r="O3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>0.19012080000000001</v>
       </c>
       <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
         <v>84</v>
       </c>
-      <c r="E4" t="s">
-        <v>85</v>
-      </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I4">
         <v>0.10631174138960649</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N4">
         <v>0.40439611291068944</v>
       </c>
       <c r="O4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>6.8303999999999999E-4</v>
       </c>
       <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
         <v>84</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>86</v>
       </c>
       <c r="I5">
         <v>0.10023090147227821</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.22555529847292916</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="O5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6">
         <v>2.29328E-2</v>
       </c>
       <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
         <v>84</v>
       </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>1.7782793664627716E-2</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="N6">
-        <v>0.26702915316982878</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="O6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>0.19813078000000001</v>
       </c>
       <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
         <v>84</v>
       </c>
-      <c r="E7" t="s">
-        <v>85</v>
-      </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I7">
         <v>0.16967187838573711</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>0.30301943544655252</v>
       </c>
       <c r="O7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>6.5323100000000004E-3</v>
       </c>
       <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
         <v>84</v>
       </c>
-      <c r="E8" t="s">
-        <v>85</v>
-      </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I8">
         <v>0.14576744690312657</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9">
         <v>3.4337239999999998E-2</v>
       </c>
       <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
         <v>84</v>
       </c>
-      <c r="E9" t="s">
-        <v>85</v>
-      </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I9">
         <v>2.6968570015653507E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10">
         <v>0.29213239000000002</v>
       </c>
       <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
         <v>84</v>
       </c>
-      <c r="E10" t="s">
-        <v>85</v>
-      </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10">
         <v>5.5573819299504133E-2</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11">
         <v>2.0128549999999999E-2</v>
       </c>
       <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
         <v>84</v>
       </c>
-      <c r="E11" t="s">
-        <v>85</v>
-      </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11">
         <v>4.922270898185073E-2</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12">
         <v>5.1236289999999997E-2</v>
       </c>
       <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
         <v>84</v>
       </c>
-      <c r="E12" t="s">
-        <v>85</v>
-      </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I12">
         <v>1.0225265015663995E-2</v>
       </c>
       <c r="J12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>0.16783724999999999</v>
       </c>
       <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
         <v>84</v>
       </c>
-      <c r="E13" t="s">
-        <v>85</v>
-      </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I13">
         <v>0.14655490217773437</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
         <v>84</v>
       </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I14">
         <v>0.14614202742312385</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15">
         <v>1.5928499999999998E-2</v>
       </c>
       <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
         <v>84</v>
       </c>
-      <c r="E15" t="s">
-        <v>85</v>
-      </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I15">
         <v>2.5547945270916316E-2</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5D3FAB-D1A7-4DB9-96D7-78B9E3BFAFBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA3BDB9-4D89-4BF4-9E8C-BAE91ECB4A14}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2062,45 +2060,45 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
@@ -2111,25 +2109,25 @@
         <v>0.16087081189037786</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J4">
         <v>0.11819115625337555</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O4">
         <v>0.18444393583567309</v>
@@ -2143,25 +2141,25 @@
         <v>5.2547713165767528E-2</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5">
         <v>9.764364422569162E-2</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O5">
         <v>0.33632064062675737</v>
@@ -2175,25 +2173,25 @@
         <v>3.5896543437005365E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J6">
         <v>2.2218061012861254E-2</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O6">
         <v>0.16828062521923326</v>
@@ -2207,25 +2205,25 @@
         <v>0.16263862301005233</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7">
         <v>0.12251447003662695</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O7">
         <v>0.19174320375688136</v>
@@ -2239,25 +2237,25 @@
         <v>5.3125160563193538E-2</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J8">
         <v>9.9430561690573876E-2</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O8">
         <v>0.37712195612715815</v>
@@ -2271,25 +2269,25 @@
         <v>3.6291010947302131E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9">
         <v>2.2965271391870858E-2</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O9">
         <v>0.1680616153557668</v>
@@ -2303,25 +2301,25 @@
         <v>0.16263862301005233</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10">
         <v>0.12264326156561349</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O10">
         <v>0.14769495408386679</v>
@@ -2335,25 +2333,25 @@
         <v>5.3125160563193538E-2</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11">
         <v>0.10045386194730507</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11">
         <v>0.31451538907064003</v>
@@ -2367,25 +2365,25 @@
         <v>3.6291010947302131E-2</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12">
         <v>2.2611873364752143E-2</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O12">
         <v>0.1070148299237299</v>
@@ -2399,25 +2397,25 @@
         <v>0.15910300077070333</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J13">
         <v>0.13762287724714475</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O13">
         <v>0.10814855721490635</v>
@@ -2431,25 +2429,25 @@
         <v>5.197026576834151E-2</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J14">
         <v>0.10709107236508457</v>
       </c>
       <c r="M14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O14">
         <v>0.30643668094329723</v>
@@ -2463,25 +2461,25 @@
         <v>3.5502075926708607E-2</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J15">
         <v>2.6613888899099897E-2</v>
       </c>
       <c r="M15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O15">
         <v>5.2768244206291559E-2</v>
@@ -2489,10 +2487,10 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16">
         <v>0.11495523261944324</v>
@@ -2500,10 +2498,10 @@
     </row>
     <row r="17" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J17">
         <v>0.11331233725982839</v>
@@ -2511,10 +2509,10 @@
     </row>
     <row r="18" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J18">
         <v>2.0959220056360785E-2</v>
@@ -2522,10 +2520,10 @@
     </row>
     <row r="19" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J19">
         <v>0.11632010738895902</v>
@@ -2533,10 +2531,10 @@
     </row>
     <row r="20" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J20">
         <v>0.11447441211196349</v>
@@ -2544,10 +2542,10 @@
     </row>
     <row r="21" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J21">
         <v>2.1204273083676676E-2</v>
@@ -2555,10 +2553,10 @@
     </row>
     <row r="22" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J22">
         <v>0.11630400514669803</v>
@@ -2566,10 +2564,10 @@
     </row>
     <row r="23" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J23">
         <v>0.11452983114371207</v>
@@ -2577,10 +2575,10 @@
     </row>
     <row r="24" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J24">
         <v>2.1171216837340218E-2</v>
@@ -2588,10 +2586,10 @@
     </row>
     <row r="25" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J25">
         <v>0.11416318349107028</v>
@@ -2599,10 +2597,10 @@
     </row>
     <row r="26" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J26">
         <v>0.11172198474672497</v>
@@ -2610,10 +2608,10 @@
     </row>
     <row r="27" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J27">
         <v>2.0884196114222889E-2</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_16.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273F564F-A50B-4528-9583-2EC5F91FF184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2644CD3A-D9DB-4FED-9FA0-623F7E674E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaD,RaD,FaP,SaP,WaP,SaD,WaD,RaP</t>
-  </si>
-  <si>
-    <t>RaP,RaN,FaP,SaP,SaN,WaN,FaN,WaP</t>
+    <t>WaP,RaP,FaD,SaD,FaP,SaP,WaD,RaD</t>
+  </si>
+  <si>
+    <t>WaP,SaN,WaN,RaN,RaP,FaP,SaP,FaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaP,RaN,FaP,SaP,SaN,WaN,FaN,WaP</v>
+        <v>WaP,SaN,WaN,RaN,RaP,FaP,SaP,FaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaD,RaD,FaP,SaP,WaP,SaD,WaD,RaP</v>
+        <v>WaP,RaP,FaD,SaD,FaP,SaP,WaD,RaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D80CF6-3CF3-411E-B5D4-424E67724DF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3580AFAD-878A-4AED-AE9D-509077B1B014}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C55E210-79DC-4E5E-A7A8-9C524D892F25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F6E1CB-EB95-4D68-8B82-EDA76C188FEA}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="N5">
-        <v>0.26702915316982878</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N6">
-        <v>0.22555529847292916</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA3BDB9-4D89-4BF4-9E8C-BAE91ECB4A14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCD8439-016E-4F82-9A37-D87993EF962F}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
